--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value284.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value284.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.122591116185392</v>
+        <v>1.148840308189392</v>
       </c>
       <c r="B1">
-        <v>2.153812154131391</v>
+        <v>1.332544922828674</v>
       </c>
       <c r="C1">
-        <v>2.29400824766882</v>
+        <v>1.691295981407166</v>
       </c>
       <c r="D1">
-        <v>2.509077620022637</v>
+        <v>3.213660478591919</v>
       </c>
       <c r="E1">
-        <v>0.8826026252525558</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
